--- a/中英翻译.xlsx
+++ b/中英翻译.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="131">
   <si>
     <t>name</t>
   </si>
@@ -29,18 +29,6 @@
   </si>
   <si>
     <t>English</t>
-  </si>
-  <si>
-    <t>app_name</t>
-  </si>
-  <si>
-    <t>AIPay</t>
-  </si>
-  <si>
-    <t>app_name_test</t>
-  </si>
-  <si>
-    <t>AIPay Test</t>
   </si>
   <si>
     <t>http_unauthorized</t>
@@ -944,10 +932,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:Z463"/>
+  <dimension ref="A1:Z461"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18:XFD18"/>
+      <selection activeCell="A3" sqref="A2:XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
@@ -999,7 +987,7 @@
         <v>4</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D2" s="4"/>
       <c r="E2" s="4"/>
@@ -1027,13 +1015,13 @@
     </row>
     <row r="3" spans="1:26" ht="12.75">
       <c r="A3" s="5" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D3" s="4"/>
       <c r="E3" s="4"/>
@@ -1061,13 +1049,13 @@
     </row>
     <row r="4" spans="1:26" ht="12.75">
       <c r="A4" s="5" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
@@ -1095,13 +1083,13 @@
     </row>
     <row r="5" spans="1:26" ht="12.75">
       <c r="A5" s="5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D5" s="4"/>
       <c r="E5" s="4"/>
@@ -1129,13 +1117,13 @@
     </row>
     <row r="6" spans="1:26" ht="12.75">
       <c r="A6" s="5" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D6" s="4"/>
       <c r="E6" s="4"/>
@@ -1163,13 +1151,13 @@
     </row>
     <row r="7" spans="1:26" ht="12.75">
       <c r="A7" s="5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D7" s="4"/>
       <c r="E7" s="4"/>
@@ -1197,13 +1185,13 @@
     </row>
     <row r="8" spans="1:26" ht="12.75">
       <c r="A8" s="5" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D8" s="4"/>
       <c r="E8" s="4"/>
@@ -1231,13 +1219,13 @@
     </row>
     <row r="9" spans="1:26" ht="12.75">
       <c r="A9" s="5" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D9" s="4"/>
       <c r="E9" s="4"/>
@@ -1265,13 +1253,13 @@
     </row>
     <row r="10" spans="1:26" ht="12.75">
       <c r="A10" s="5" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D10" s="4"/>
       <c r="E10" s="4"/>
@@ -1299,13 +1287,13 @@
     </row>
     <row r="11" spans="1:26" ht="12.75">
       <c r="A11" s="5" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D11" s="4"/>
       <c r="E11" s="4"/>
@@ -1333,13 +1321,13 @@
     </row>
     <row r="12" spans="1:26" ht="12.75">
       <c r="A12" s="5" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D12" s="4"/>
       <c r="E12" s="4"/>
@@ -1367,13 +1355,13 @@
     </row>
     <row r="13" spans="1:26" ht="12.75">
       <c r="A13" s="5" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D13" s="4"/>
       <c r="E13" s="4"/>
@@ -1401,13 +1389,13 @@
     </row>
     <row r="14" spans="1:26" ht="12.75">
       <c r="A14" s="5" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D14" s="4"/>
       <c r="E14" s="4"/>
@@ -1435,13 +1423,13 @@
     </row>
     <row r="15" spans="1:26" ht="12.75">
       <c r="A15" s="5" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D15" s="4"/>
       <c r="E15" s="4"/>
@@ -1469,13 +1457,13 @@
     </row>
     <row r="16" spans="1:26" ht="12.75">
       <c r="A16" s="5" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
-      <c r="C16" s="5" t="s">
-        <v>45</v>
+      <c r="C16" s="17" t="s">
+        <v>129</v>
       </c>
       <c r="D16" s="4"/>
       <c r="E16" s="4"/>
@@ -1503,13 +1491,13 @@
     </row>
     <row r="17" spans="1:26" ht="12.75">
       <c r="A17" s="5" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
-      <c r="B17" s="6" t="s">
-        <v>47</v>
+      <c r="B17" s="16" t="s">
+        <v>128</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D17" s="4"/>
       <c r="E17" s="4"/>
@@ -1542,8 +1530,8 @@
       <c r="B18" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="C18" s="17" t="s">
-        <v>133</v>
+      <c r="C18" s="5" t="s">
+        <v>53</v>
       </c>
       <c r="D18" s="4"/>
       <c r="E18" s="4"/>
@@ -1570,48 +1558,48 @@
       <c r="Z18" s="4"/>
     </row>
     <row r="19" spans="1:26" ht="12.75">
-      <c r="A19" s="5" t="s">
-        <v>53</v>
+      <c r="A19" s="15" t="s">
+        <v>126</v>
       </c>
-      <c r="B19" s="16" t="s">
-        <v>132</v>
+      <c r="B19" s="14" t="s">
+        <v>127</v>
       </c>
-      <c r="C19" s="5" t="s">
+      <c r="C19" s="15" t="s">
+        <v>125</v>
+      </c>
+      <c r="D19" s="9"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="9"/>
+      <c r="G19" s="9"/>
+      <c r="H19" s="9"/>
+      <c r="I19" s="9"/>
+      <c r="J19" s="9"/>
+      <c r="K19" s="9"/>
+      <c r="L19" s="9"/>
+      <c r="M19" s="9"/>
+      <c r="N19" s="9"/>
+      <c r="O19" s="9"/>
+      <c r="P19" s="9"/>
+      <c r="Q19" s="9"/>
+      <c r="R19" s="9"/>
+      <c r="S19" s="9"/>
+      <c r="T19" s="9"/>
+      <c r="U19" s="9"/>
+      <c r="V19" s="9"/>
+      <c r="W19" s="9"/>
+      <c r="X19" s="9"/>
+      <c r="Y19" s="9"/>
+      <c r="Z19" s="9"/>
+    </row>
+    <row r="20" spans="1:26" ht="12.75">
+      <c r="A20" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="D19" s="4"/>
-      <c r="E19" s="4"/>
-      <c r="F19" s="4"/>
-      <c r="G19" s="4"/>
-      <c r="H19" s="4"/>
-      <c r="I19" s="4"/>
-      <c r="J19" s="4"/>
-      <c r="K19" s="4"/>
-      <c r="L19" s="4"/>
-      <c r="M19" s="4"/>
-      <c r="N19" s="4"/>
-      <c r="O19" s="4"/>
-      <c r="P19" s="4"/>
-      <c r="Q19" s="4"/>
-      <c r="R19" s="4"/>
-      <c r="S19" s="4"/>
-      <c r="T19" s="4"/>
-      <c r="U19" s="4"/>
-      <c r="V19" s="4"/>
-      <c r="W19" s="4"/>
-      <c r="X19" s="4"/>
-      <c r="Y19" s="4"/>
-      <c r="Z19" s="4"/>
-    </row>
-    <row r="20" spans="1:26" ht="12.75">
-      <c r="A20" s="5" t="s">
+      <c r="B20" s="14" t="s">
+        <v>124</v>
+      </c>
+      <c r="C20" s="8" t="s">
         <v>55</v>
-      </c>
-      <c r="B20" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="C20" s="5" t="s">
-        <v>57</v>
       </c>
       <c r="D20" s="4"/>
       <c r="E20" s="4"/>
@@ -1638,49 +1626,43 @@
       <c r="Z20" s="4"/>
     </row>
     <row r="21" spans="1:26" ht="12.75">
-      <c r="A21" s="15" t="s">
+      <c r="A21" s="17" t="s">
         <v>130</v>
       </c>
-      <c r="B21" s="14" t="s">
-        <v>131</v>
+      <c r="B21" s="6" t="s">
+        <v>45</v>
       </c>
-      <c r="C21" s="15" t="s">
-        <v>129</v>
+      <c r="C21" s="5" t="s">
+        <v>46</v>
       </c>
-      <c r="D21" s="9"/>
-      <c r="E21" s="9"/>
-      <c r="F21" s="9"/>
-      <c r="G21" s="9"/>
-      <c r="H21" s="9"/>
-      <c r="I21" s="9"/>
-      <c r="J21" s="9"/>
-      <c r="K21" s="9"/>
-      <c r="L21" s="9"/>
-      <c r="M21" s="9"/>
-      <c r="N21" s="9"/>
-      <c r="O21" s="9"/>
-      <c r="P21" s="9"/>
-      <c r="Q21" s="9"/>
-      <c r="R21" s="9"/>
-      <c r="S21" s="9"/>
-      <c r="T21" s="9"/>
-      <c r="U21" s="9"/>
-      <c r="V21" s="9"/>
-      <c r="W21" s="9"/>
-      <c r="X21" s="9"/>
-      <c r="Y21" s="9"/>
-      <c r="Z21" s="9"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="4"/>
+      <c r="G21" s="4"/>
+      <c r="H21" s="4"/>
+      <c r="I21" s="4"/>
+      <c r="J21" s="4"/>
+      <c r="K21" s="4"/>
+      <c r="L21" s="4"/>
+      <c r="M21" s="4"/>
+      <c r="N21" s="4"/>
+      <c r="O21" s="4"/>
+      <c r="P21" s="4"/>
+      <c r="Q21" s="4"/>
+      <c r="R21" s="4"/>
+      <c r="S21" s="4"/>
+      <c r="T21" s="4"/>
+      <c r="U21" s="4"/>
+      <c r="V21" s="4"/>
+      <c r="W21" s="4"/>
+      <c r="X21" s="4"/>
+      <c r="Y21" s="4"/>
+      <c r="Z21" s="4"/>
     </row>
     <row r="22" spans="1:26" ht="12.75">
-      <c r="A22" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="B22" s="14" t="s">
-        <v>128</v>
-      </c>
-      <c r="C22" s="8" t="s">
-        <v>59</v>
-      </c>
+      <c r="A22" s="4"/>
+      <c r="B22" s="10"/>
+      <c r="C22" s="4"/>
       <c r="D22" s="4"/>
       <c r="E22" s="4"/>
       <c r="F22" s="4"/>
@@ -1706,15 +1688,9 @@
       <c r="Z22" s="4"/>
     </row>
     <row r="23" spans="1:26" ht="12.75">
-      <c r="A23" s="17" t="s">
-        <v>134</v>
-      </c>
-      <c r="B23" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="C23" s="5" t="s">
-        <v>50</v>
-      </c>
+      <c r="A23" s="4"/>
+      <c r="B23" s="10"/>
+      <c r="C23" s="4"/>
       <c r="D23" s="4"/>
       <c r="E23" s="4"/>
       <c r="F23" s="4"/>
@@ -14002,62 +13978,6 @@
       <c r="X461" s="4"/>
       <c r="Y461" s="4"/>
       <c r="Z461" s="4"/>
-    </row>
-    <row r="462" spans="1:26" ht="12.75">
-      <c r="A462" s="4"/>
-      <c r="B462" s="10"/>
-      <c r="C462" s="4"/>
-      <c r="D462" s="4"/>
-      <c r="E462" s="4"/>
-      <c r="F462" s="4"/>
-      <c r="G462" s="4"/>
-      <c r="H462" s="4"/>
-      <c r="I462" s="4"/>
-      <c r="J462" s="4"/>
-      <c r="K462" s="4"/>
-      <c r="L462" s="4"/>
-      <c r="M462" s="4"/>
-      <c r="N462" s="4"/>
-      <c r="O462" s="4"/>
-      <c r="P462" s="4"/>
-      <c r="Q462" s="4"/>
-      <c r="R462" s="4"/>
-      <c r="S462" s="4"/>
-      <c r="T462" s="4"/>
-      <c r="U462" s="4"/>
-      <c r="V462" s="4"/>
-      <c r="W462" s="4"/>
-      <c r="X462" s="4"/>
-      <c r="Y462" s="4"/>
-      <c r="Z462" s="4"/>
-    </row>
-    <row r="463" spans="1:26" ht="12.75">
-      <c r="A463" s="4"/>
-      <c r="B463" s="10"/>
-      <c r="C463" s="4"/>
-      <c r="D463" s="4"/>
-      <c r="E463" s="4"/>
-      <c r="F463" s="4"/>
-      <c r="G463" s="4"/>
-      <c r="H463" s="4"/>
-      <c r="I463" s="4"/>
-      <c r="J463" s="4"/>
-      <c r="K463" s="4"/>
-      <c r="L463" s="4"/>
-      <c r="M463" s="4"/>
-      <c r="N463" s="4"/>
-      <c r="O463" s="4"/>
-      <c r="P463" s="4"/>
-      <c r="Q463" s="4"/>
-      <c r="R463" s="4"/>
-      <c r="S463" s="4"/>
-      <c r="T463" s="4"/>
-      <c r="U463" s="4"/>
-      <c r="V463" s="4"/>
-      <c r="W463" s="4"/>
-      <c r="X463" s="4"/>
-      <c r="Y463" s="4"/>
-      <c r="Z463" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
@@ -14117,13 +14037,13 @@
     </row>
     <row r="2" spans="1:26">
       <c r="A2" s="11" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="D2" s="12"/>
       <c r="E2" s="12"/>
@@ -14151,13 +14071,13 @@
     </row>
     <row r="3" spans="1:26">
       <c r="A3" s="11" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="D3" s="12"/>
       <c r="E3" s="12"/>
@@ -14185,13 +14105,13 @@
     </row>
     <row r="4" spans="1:26">
       <c r="A4" s="11" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="D4" s="12"/>
       <c r="E4" s="12"/>
@@ -14219,13 +14139,13 @@
     </row>
     <row r="5" spans="1:26">
       <c r="A5" s="11" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="D5" s="12"/>
       <c r="E5" s="12"/>
@@ -14253,13 +14173,13 @@
     </row>
     <row r="6" spans="1:26">
       <c r="A6" s="11" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="D6" s="12"/>
       <c r="E6" s="12"/>
@@ -14287,13 +14207,13 @@
     </row>
     <row r="7" spans="1:26">
       <c r="A7" s="11" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="D7" s="12"/>
       <c r="E7" s="12"/>
@@ -14321,13 +14241,13 @@
     </row>
     <row r="8" spans="1:26">
       <c r="A8" s="11" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="D8" s="12"/>
       <c r="E8" s="12"/>
@@ -14355,13 +14275,13 @@
     </row>
     <row r="9" spans="1:26">
       <c r="A9" s="11" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="D9" s="12"/>
       <c r="E9" s="12"/>
@@ -14389,13 +14309,13 @@
     </row>
     <row r="10" spans="1:26">
       <c r="A10" s="11" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="D10" s="12"/>
       <c r="E10" s="12"/>
@@ -14423,13 +14343,13 @@
     </row>
     <row r="11" spans="1:26">
       <c r="A11" s="11" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="D11" s="12"/>
       <c r="E11" s="12"/>
@@ -14457,13 +14377,13 @@
     </row>
     <row r="12" spans="1:26">
       <c r="A12" s="11" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="D12" s="12"/>
       <c r="E12" s="12"/>
@@ -14491,13 +14411,13 @@
     </row>
     <row r="13" spans="1:26">
       <c r="A13" s="11" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="D13" s="12"/>
       <c r="E13" s="12"/>
@@ -14525,13 +14445,13 @@
     </row>
     <row r="14" spans="1:26">
       <c r="A14" s="11" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="D14" s="12"/>
       <c r="E14" s="12"/>
@@ -14559,13 +14479,13 @@
     </row>
     <row r="15" spans="1:26">
       <c r="A15" s="11" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="D15" s="12"/>
       <c r="E15" s="12"/>
@@ -14593,13 +14513,13 @@
     </row>
     <row r="16" spans="1:26">
       <c r="A16" s="11" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="D16" s="12"/>
       <c r="E16" s="12"/>
@@ -14627,13 +14547,13 @@
     </row>
     <row r="17" spans="1:26">
       <c r="A17" s="11" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="C17" s="11" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="D17" s="12"/>
       <c r="E17" s="12"/>
@@ -14661,13 +14581,13 @@
     </row>
     <row r="18" spans="1:26">
       <c r="A18" s="11" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="C18" s="11" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="D18" s="12"/>
       <c r="E18" s="12"/>
@@ -14695,13 +14615,13 @@
     </row>
     <row r="19" spans="1:26">
       <c r="A19" s="11" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="D19" s="12"/>
       <c r="E19" s="12"/>
@@ -14729,13 +14649,13 @@
     </row>
     <row r="20" spans="1:26">
       <c r="A20" s="11" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="C20" s="11" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="D20" s="12"/>
       <c r="E20" s="12"/>
@@ -14763,13 +14683,13 @@
     </row>
     <row r="21" spans="1:26">
       <c r="A21" s="11" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="C21" s="11" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="D21" s="12"/>
       <c r="E21" s="12"/>
@@ -14797,13 +14717,13 @@
     </row>
     <row r="22" spans="1:26">
       <c r="A22" s="11" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="B22" s="11" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="C22" s="11" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="D22" s="12"/>
       <c r="E22" s="12"/>
@@ -14831,13 +14751,13 @@
     </row>
     <row r="23" spans="1:26">
       <c r="A23" s="11" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="B23" s="11" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="C23" s="11" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="D23" s="12"/>
       <c r="E23" s="12"/>
@@ -14865,13 +14785,13 @@
     </row>
     <row r="24" spans="1:26">
       <c r="A24" s="11" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="B24" s="11" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="C24" s="13" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="D24" s="12"/>
       <c r="E24" s="12"/>
